--- a/CB/可转债交易数据.xlsx
+++ b/CB/可转债交易数据.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
   <si>
     <t>转债代码</t>
   </si>
@@ -275,6 +275,45 @@
   </si>
   <si>
     <t>星帅转债</t>
+  </si>
+  <si>
+    <t>时达转债</t>
+  </si>
+  <si>
+    <t>机器人及</t>
+  </si>
+  <si>
+    <t>利群转债</t>
+  </si>
+  <si>
+    <t>商业零售</t>
+  </si>
+  <si>
+    <t>商场</t>
+  </si>
+  <si>
+    <t>众兴转债</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>种植业</t>
+  </si>
+  <si>
+    <t>好客转债</t>
+  </si>
+  <si>
+    <t>维尔转债</t>
+  </si>
+  <si>
+    <t>长集转债</t>
+  </si>
+  <si>
+    <t>天路转债</t>
+  </si>
+  <si>
+    <t>水泥</t>
   </si>
 </sst>
 </file>
@@ -282,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -306,7 +345,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,15 +382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,28 +390,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,9 +403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,8 +472,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +509,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,7 +587,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,121 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,25 +689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,21 +714,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +800,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -784,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,137 +835,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,25 +993,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1300,12 +1324,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1351,7 +1375,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1369,7 +1393,7 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1402,7 +1426,7 @@
         <f>(130-F2)*G2</f>
         <v>1199.95</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="11">
         <f>I2/H2</f>
         <v>0.226403524495052</v>
       </c>
@@ -1423,7 +1447,7 @@
         <f>N2-H2</f>
         <v>76.2299999999996</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="11">
         <f>O2/H2</f>
         <v>0.0143828831803473</v>
       </c>
@@ -1454,11 +1478,11 @@
         <v>5015</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I30" si="0">(130-F3)*G3</f>
+        <f t="shared" ref="I3:I38" si="0">(130-F3)*G3</f>
         <v>1485</v>
       </c>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J30" si="1">I3/H3</f>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J38" si="1">I3/H3</f>
         <v>0.296111665004985</v>
       </c>
       <c r="K3" s="5">
@@ -1477,7 +1501,7 @@
         <f>N3-H3</f>
         <v>2254.85</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="11">
         <f>O3/H3</f>
         <v>0.449621136590229</v>
       </c>
@@ -1511,7 +1535,7 @@
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <f t="shared" si="1"/>
         <v>0.154529307282416</v>
       </c>
@@ -1520,7 +1544,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="7">
@@ -1551,7 +1575,7 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
         <v>0.160714285714286</v>
       </c>
@@ -1560,7 +1584,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="15"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="5">
@@ -1591,7 +1615,7 @@
         <f t="shared" si="0"/>
         <v>945</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <f t="shared" si="1"/>
         <v>0.17011701170117</v>
       </c>
@@ -1611,7 +1635,7 @@
         <f>N6-H6</f>
         <v>945</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="11">
         <f>O6/H6</f>
         <v>0.17011701170117</v>
       </c>
@@ -1645,7 +1669,7 @@
         <f t="shared" si="0"/>
         <v>716.68</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <f t="shared" si="1"/>
         <v>0.159854750497399</v>
       </c>
@@ -1654,7 +1678,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="15"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7">
@@ -1685,7 +1709,7 @@
         <f t="shared" si="0"/>
         <v>883.5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="11">
         <f t="shared" si="1"/>
         <v>0.157304371049586</v>
       </c>
@@ -1694,7 +1718,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5">
@@ -1725,7 +1749,7 @@
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <f t="shared" si="1"/>
         <v>0.191567369385885</v>
       </c>
@@ -1745,7 +1769,7 @@
         <f>N9-H9</f>
         <v>1046</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="11">
         <f>O9/H9</f>
         <v>0.191750687442713</v>
       </c>
@@ -1779,7 +1803,7 @@
         <f t="shared" si="0"/>
         <v>905</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <f t="shared" si="1"/>
         <v>0.161751563896336</v>
       </c>
@@ -1788,7 +1812,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5">
@@ -1819,7 +1843,7 @@
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="11">
         <f t="shared" si="1"/>
         <v>0.153300212916962</v>
       </c>
@@ -1839,7 +1863,7 @@
         <f>N11-H11</f>
         <v>864</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="11">
         <f>O11/H11</f>
         <v>0.153300212916962</v>
       </c>
@@ -1873,7 +1897,7 @@
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <f t="shared" si="1"/>
         <v>0.153504880212955</v>
       </c>
@@ -1894,7 +1918,7 @@
         <f>N12-H12</f>
         <v>987.499999999999</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="11">
         <f>O12/H12</f>
         <v>0.175244010647737</v>
       </c>
@@ -1928,7 +1952,7 @@
         <f t="shared" si="0"/>
         <v>1245</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <f t="shared" si="1"/>
         <v>0.236917221693625</v>
       </c>
@@ -1948,7 +1972,7 @@
         <f>N13-H13</f>
         <v>1245</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="11">
         <f>O13/H13</f>
         <v>0.236917221693625</v>
       </c>
@@ -1982,7 +2006,7 @@
         <f t="shared" si="0"/>
         <v>1190</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="11">
         <f t="shared" si="1"/>
         <v>0.224105461393597</v>
       </c>
@@ -1991,7 +2015,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="15"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="5">
@@ -2022,7 +2046,7 @@
         <f t="shared" si="0"/>
         <v>1205</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="11">
         <f t="shared" si="1"/>
         <v>0.227573182247403</v>
       </c>
@@ -2042,7 +2066,7 @@
         <f>N15-H15</f>
         <v>1205.05</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="11">
         <f>O15/H15</f>
         <v>0.227582625118036</v>
       </c>
@@ -2076,7 +2100,7 @@
         <f t="shared" si="0"/>
         <v>1321.25</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="11">
         <f t="shared" si="1"/>
         <v>0.255129133478156</v>
       </c>
@@ -2085,7 +2109,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="15"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="5">
@@ -2116,7 +2140,7 @@
         <f t="shared" si="0"/>
         <v>1096</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="11">
         <f t="shared" si="1"/>
         <v>0.202812731310141</v>
       </c>
@@ -2136,7 +2160,7 @@
         <f>N17-H17</f>
         <v>1096</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="11">
         <f>O17/H17</f>
         <v>0.202812731310141</v>
       </c>
@@ -2170,7 +2194,7 @@
         <f t="shared" si="0"/>
         <v>1086.5</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="11">
         <f t="shared" si="1"/>
         <v>0.200701948831625</v>
       </c>
@@ -2179,7 +2203,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="15"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="7">
@@ -2210,7 +2234,7 @@
         <f t="shared" si="0"/>
         <v>860.1</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <f t="shared" si="1"/>
         <v>0.152502703948652</v>
       </c>
@@ -2219,7 +2243,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="15"/>
+      <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7">
@@ -2250,7 +2274,7 @@
         <f t="shared" si="0"/>
         <v>1084</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="11">
         <f t="shared" si="1"/>
         <v>0.200147710487445</v>
       </c>
@@ -2259,7 +2283,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="15"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5">
@@ -2290,7 +2314,7 @@
         <f t="shared" si="0"/>
         <v>1116.7</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="11">
         <f t="shared" si="1"/>
         <v>0.207437816952427</v>
       </c>
@@ -2310,7 +2334,7 @@
         <f>N21-H21</f>
         <v>1116.7</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="11">
         <f>O17/H17</f>
         <v>0.202812731310141</v>
       </c>
@@ -2344,7 +2368,7 @@
         <f t="shared" si="0"/>
         <v>875</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="11">
         <f t="shared" si="1"/>
         <v>0.155400017404802</v>
       </c>
@@ -2353,7 +2377,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="15"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="7">
@@ -2384,7 +2408,7 @@
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="11">
         <f t="shared" si="1"/>
         <v>0.180872916325826</v>
       </c>
@@ -2393,7 +2417,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="15"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7">
@@ -2424,7 +2448,7 @@
         <f t="shared" si="0"/>
         <v>764</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <f t="shared" si="1"/>
         <v>0.133167164881518</v>
       </c>
@@ -2433,7 +2457,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="15"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="7">
@@ -2464,7 +2488,7 @@
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="11">
         <f t="shared" si="1"/>
         <v>0.154374932350066</v>
       </c>
@@ -2473,7 +2497,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="15"/>
+      <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7">
@@ -2504,7 +2528,7 @@
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="11">
         <f t="shared" si="1"/>
         <v>0.209302325581395</v>
       </c>
@@ -2513,7 +2537,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="15"/>
+      <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="7">
@@ -2544,7 +2568,7 @@
         <f t="shared" si="0"/>
         <v>1100.5</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="11">
         <f t="shared" si="1"/>
         <v>0.203774409415285</v>
       </c>
@@ -2553,7 +2577,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="15"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="5">
@@ -2584,7 +2608,7 @@
         <f t="shared" si="0"/>
         <v>950.15</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="11">
         <f t="shared" si="1"/>
         <v>0.171202825301585</v>
       </c>
@@ -2604,7 +2628,7 @@
         <f>N28-H28</f>
         <v>1200.15</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="11">
         <f>O28/H28</f>
         <v>0.216249087813184</v>
       </c>
@@ -2638,7 +2662,7 @@
         <f t="shared" si="0"/>
         <v>1156.45</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="11">
         <f t="shared" si="1"/>
         <v>0.216419795828616</v>
       </c>
@@ -2647,7 +2671,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="15"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7">
@@ -2678,7 +2702,7 @@
         <f t="shared" si="0"/>
         <v>828.35</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="11">
         <f t="shared" si="1"/>
         <v>0.14605097282096</v>
       </c>
@@ -2687,47 +2711,61 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="15"/>
+      <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>128082</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>20201026</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>113.259</v>
       </c>
-      <c r="G31" s="7">
-        <v>50</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="G31" s="5">
+        <v>50</v>
+      </c>
+      <c r="H31" s="5">
         <v>5662.95</v>
       </c>
-      <c r="I31" s="7">
-        <f>(130-F31)*G31</f>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
         <v>837.05</v>
       </c>
-      <c r="J31" s="14">
-        <f>I31/H31</f>
+      <c r="J31" s="11">
+        <f t="shared" si="1"/>
         <v>0.147811652937073</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="15"/>
+      <c r="K31" s="5">
+        <v>20201126</v>
+      </c>
+      <c r="L31" s="5">
+        <v>131</v>
+      </c>
+      <c r="M31" s="5">
+        <v>50</v>
+      </c>
+      <c r="N31" s="5">
+        <v>6550</v>
+      </c>
+      <c r="O31" s="5">
+        <f>N31-H31</f>
+        <v>887.05</v>
+      </c>
+      <c r="P31" s="11">
+        <f>O31/H31</f>
+        <v>0.156640973344282</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7">
@@ -2755,11 +2793,11 @@
         <v>5492</v>
       </c>
       <c r="I32" s="7">
-        <f>(130-F32)*G32</f>
+        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="J32" s="14">
-        <f>I32/H32</f>
+      <c r="J32" s="11">
+        <f t="shared" si="1"/>
         <v>0.18353969410051</v>
       </c>
       <c r="K32" s="7"/>
@@ -2767,7 +2805,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="15"/>
+      <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="7">
@@ -2795,11 +2833,11 @@
         <v>5575.5</v>
       </c>
       <c r="I33" s="7">
-        <f>(130-F33)*G33</f>
+        <f t="shared" si="0"/>
         <v>924.5</v>
       </c>
-      <c r="J33" s="14">
-        <f>I33/H33</f>
+      <c r="J33" s="11">
+        <f t="shared" si="1"/>
         <v>0.165814725136759</v>
       </c>
       <c r="K33" s="7"/>
@@ -2807,313 +2845,462 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="15"/>
+      <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="9">
+      <c r="A34" s="5">
         <v>128094</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="6">
         <v>20201026</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="5">
         <v>114.81</v>
       </c>
-      <c r="G34" s="9">
-        <v>50</v>
-      </c>
-      <c r="H34" s="9">
+      <c r="G34" s="5">
+        <v>50</v>
+      </c>
+      <c r="H34" s="5">
         <v>5470.5</v>
       </c>
       <c r="I34" s="5">
-        <f>(130-F34)*G34</f>
+        <f t="shared" si="0"/>
         <v>759.5</v>
       </c>
-      <c r="J34" s="14">
-        <f>I34/H34</f>
+      <c r="J34" s="11">
+        <f t="shared" si="1"/>
         <v>0.138835572616763</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="5">
         <v>20201027</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="5">
         <v>130.417</v>
       </c>
-      <c r="M34" s="9">
-        <v>50</v>
-      </c>
-      <c r="N34" s="9">
+      <c r="M34" s="5">
+        <v>50</v>
+      </c>
+      <c r="N34" s="5">
         <v>6520.85</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="5">
         <f>N34-H34</f>
         <v>1050.35</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="11">
         <f>O34/H34</f>
         <v>0.192002559181062</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="17"/>
+      <c r="A35" s="7">
+        <v>128094</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="8">
+        <v>20201111</v>
+      </c>
+      <c r="F35" s="7">
+        <v>111.586</v>
+      </c>
+      <c r="G35" s="7">
+        <v>50</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5579.3</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="0"/>
+        <v>920.7</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="1"/>
+        <v>0.165020701521696</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="17"/>
+      <c r="A36" s="7">
+        <v>128018</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="8">
+        <v>20201116</v>
+      </c>
+      <c r="F36" s="7">
+        <v>107.281</v>
+      </c>
+      <c r="G36" s="7">
+        <v>50</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5364.05</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="0"/>
+        <v>1135.95</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="1"/>
+        <v>0.211770956646564</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="17"/>
+      <c r="A37" s="7">
+        <v>128093</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="8">
+        <v>20201123</v>
+      </c>
+      <c r="F37" s="7">
+        <v>111.14</v>
+      </c>
+      <c r="G37" s="7">
+        <v>50</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5557</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="0"/>
+        <v>943</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="1"/>
+        <v>0.169695879071441</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="12"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="17"/>
+      <c r="A38" s="7">
+        <v>113033</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="8">
+        <v>20201140</v>
+      </c>
+      <c r="F38" s="7">
+        <v>109.464</v>
+      </c>
+      <c r="G38" s="7">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5473.2</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="0"/>
+        <v>1026.8</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18760505737046</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="17"/>
+      <c r="A39" s="7">
+        <v>128082</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1">
+        <v>20201207</v>
+      </c>
+      <c r="F39" s="9">
+        <v>114.589</v>
+      </c>
+      <c r="G39" s="9">
+        <v>50</v>
+      </c>
+      <c r="H39" s="9">
+        <f>G39*F39</f>
+        <v>5729.45</v>
+      </c>
+      <c r="I39" s="7">
+        <f>(130-F39)*G39</f>
+        <v>770.55</v>
+      </c>
+      <c r="J39" s="11">
+        <f>I39/H39</f>
+        <v>0.134489348890382</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="12"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="17"/>
+      <c r="A40" s="7">
+        <v>128026</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="8">
+        <v>20201215</v>
+      </c>
+      <c r="F40" s="7">
+        <v>103.998</v>
+      </c>
+      <c r="G40" s="7">
+        <v>50</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5199.9</v>
+      </c>
+      <c r="I40" s="7">
+        <f>(130-F40)*G40</f>
+        <v>1300.1</v>
+      </c>
+      <c r="J40" s="11">
+        <f>I40/H40</f>
+        <v>0.250024038923825</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="17"/>
+      <c r="A41" s="7">
+        <v>113542</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="8">
+        <v>20201221</v>
+      </c>
+      <c r="F41" s="7">
+        <v>114.69</v>
+      </c>
+      <c r="G41" s="7">
+        <v>50</v>
+      </c>
+      <c r="H41" s="7">
+        <v>5734.5</v>
+      </c>
+      <c r="I41" s="7">
+        <f>(130-F41)*G41</f>
+        <v>765.5</v>
+      </c>
+      <c r="J41" s="11">
+        <f>I41/H41</f>
+        <v>0.133490278141076</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="17"/>
+      <c r="A42" s="7">
+        <v>123049</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="8">
+        <v>20210104</v>
+      </c>
+      <c r="F42" s="7">
+        <v>111</v>
+      </c>
+      <c r="G42" s="7">
+        <v>20</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2220</v>
+      </c>
+      <c r="I42" s="7">
+        <f>(130-F42)*G42</f>
+        <v>380</v>
+      </c>
+      <c r="J42" s="11">
+        <f>I42/H42</f>
+        <v>0.171171171171171</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="12"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="17"/>
+      <c r="A43" s="7">
+        <v>128105</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="8">
+        <v>20210104</v>
+      </c>
+      <c r="F43" s="7">
+        <v>107.988</v>
+      </c>
+      <c r="G43" s="7">
+        <v>30</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3239.64</v>
+      </c>
+      <c r="I43" s="7">
+        <f>(130-F43)*G43</f>
+        <v>660.36</v>
+      </c>
+      <c r="J43" s="11">
+        <f>I43/H43</f>
+        <v>0.203837463421862</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="17"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="17"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="17"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="17"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="17"/>
+      <c r="A44" s="7">
+        <v>110060</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="8">
+        <v>20210104</v>
+      </c>
+      <c r="F44" s="7">
+        <v>110.6</v>
+      </c>
+      <c r="G44" s="7">
+        <v>30</v>
+      </c>
+      <c r="H44" s="7">
+        <v>3318</v>
+      </c>
+      <c r="I44" s="7">
+        <f>(130-F44)*G44</f>
+        <v>582</v>
+      </c>
+      <c r="J44" s="11">
+        <f>I44/H44</f>
+        <v>0.175406871609403</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CB/可转债交易数据.xlsx
+++ b/CB/可转债交易数据.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800"/>
+    <workbookView windowWidth="19785" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="121">
   <si>
     <t>转债代码</t>
   </si>
@@ -314,6 +314,72 @@
   </si>
   <si>
     <t>水泥</t>
+  </si>
+  <si>
+    <t>搜特转债</t>
+  </si>
+  <si>
+    <t>服装行业</t>
+  </si>
+  <si>
+    <t>东风转债</t>
+  </si>
+  <si>
+    <t>湖盐转债</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>核建转债</t>
+  </si>
+  <si>
+    <t>杭电转债</t>
+  </si>
+  <si>
+    <t>新北转债</t>
+  </si>
+  <si>
+    <t>电子产品</t>
+  </si>
+  <si>
+    <t>中天转债</t>
+  </si>
+  <si>
+    <t>柳药转债</t>
+  </si>
+  <si>
+    <t>医药商业</t>
+  </si>
+  <si>
+    <t>龙净转债</t>
+  </si>
+  <si>
+    <t>嘉泽转债</t>
+  </si>
+  <si>
+    <t>风能</t>
+  </si>
+  <si>
+    <t>精达转债</t>
+  </si>
+  <si>
+    <t>中金转债</t>
+  </si>
+  <si>
+    <t>有色行业</t>
+  </si>
+  <si>
+    <t>华安转债</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>证券行业</t>
+  </si>
+  <si>
+    <t>润建转债</t>
   </si>
 </sst>
 </file>
@@ -321,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -345,13 +411,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -365,24 +424,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,32 +469,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,14 +501,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -474,21 +516,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,13 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,13 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,19 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,37 +659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,12 +713,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -683,13 +725,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,21 +792,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,6 +822,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,10 +901,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,16 +913,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,119 +931,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,19 +1065,43 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1324,12 +1426,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1375,7 +1477,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1393,7 +1495,7 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1426,7 +1528,7 @@
         <f>(130-F2)*G2</f>
         <v>1199.95</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="12">
         <f>I2/H2</f>
         <v>0.226403524495052</v>
       </c>
@@ -1447,7 +1549,7 @@
         <f>N2-H2</f>
         <v>76.2299999999996</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="12">
         <f>O2/H2</f>
         <v>0.0143828831803473</v>
       </c>
@@ -1478,11 +1580,11 @@
         <v>5015</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I38" si="0">(130-F3)*G3</f>
+        <f t="shared" ref="I3:I48" si="0">(130-F3)*G3</f>
         <v>1485</v>
       </c>
-      <c r="J3" s="11">
-        <f t="shared" ref="J3:J38" si="1">I3/H3</f>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J48" si="1">I3/H3</f>
         <v>0.296111665004985</v>
       </c>
       <c r="K3" s="5">
@@ -1501,7 +1603,7 @@
         <f>N3-H3</f>
         <v>2254.85</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="12">
         <f>O3/H3</f>
         <v>0.449621136590229</v>
       </c>
@@ -1535,7 +1637,7 @@
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="13">
         <f t="shared" si="1"/>
         <v>0.154529307282416</v>
       </c>
@@ -1544,7 +1646,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="12"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="7">
@@ -1575,7 +1677,7 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="13">
         <f t="shared" si="1"/>
         <v>0.160714285714286</v>
       </c>
@@ -1584,7 +1686,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="12"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="5">
@@ -1615,7 +1717,7 @@
         <f t="shared" si="0"/>
         <v>945</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="12">
         <f t="shared" si="1"/>
         <v>0.17011701170117</v>
       </c>
@@ -1635,7 +1737,7 @@
         <f>N6-H6</f>
         <v>945</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="12">
         <f>O6/H6</f>
         <v>0.17011701170117</v>
       </c>
@@ -1669,7 +1771,7 @@
         <f t="shared" si="0"/>
         <v>716.68</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="13">
         <f t="shared" si="1"/>
         <v>0.159854750497399</v>
       </c>
@@ -1678,7 +1780,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="12"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7">
@@ -1709,7 +1811,7 @@
         <f t="shared" si="0"/>
         <v>883.5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="13">
         <f t="shared" si="1"/>
         <v>0.157304371049586</v>
       </c>
@@ -1718,7 +1820,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5">
@@ -1749,7 +1851,7 @@
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="12">
         <f t="shared" si="1"/>
         <v>0.191567369385885</v>
       </c>
@@ -1769,7 +1871,7 @@
         <f>N9-H9</f>
         <v>1046</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="12">
         <f>O9/H9</f>
         <v>0.191750687442713</v>
       </c>
@@ -1803,7 +1905,7 @@
         <f t="shared" si="0"/>
         <v>905</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="13">
         <f t="shared" si="1"/>
         <v>0.161751563896336</v>
       </c>
@@ -1812,7 +1914,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5">
@@ -1843,7 +1945,7 @@
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="12">
         <f t="shared" si="1"/>
         <v>0.153300212916962</v>
       </c>
@@ -1863,7 +1965,7 @@
         <f>N11-H11</f>
         <v>864</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="12">
         <f>O11/H11</f>
         <v>0.153300212916962</v>
       </c>
@@ -1897,7 +1999,7 @@
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="12">
         <f t="shared" si="1"/>
         <v>0.153504880212955</v>
       </c>
@@ -1918,7 +2020,7 @@
         <f>N12-H12</f>
         <v>987.499999999999</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="12">
         <f>O12/H12</f>
         <v>0.175244010647737</v>
       </c>
@@ -1952,7 +2054,7 @@
         <f t="shared" si="0"/>
         <v>1245</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="12">
         <f t="shared" si="1"/>
         <v>0.236917221693625</v>
       </c>
@@ -1972,7 +2074,7 @@
         <f>N13-H13</f>
         <v>1245</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="12">
         <f>O13/H13</f>
         <v>0.236917221693625</v>
       </c>
@@ -2006,7 +2108,7 @@
         <f t="shared" si="0"/>
         <v>1190</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="13">
         <f t="shared" si="1"/>
         <v>0.224105461393597</v>
       </c>
@@ -2015,7 +2117,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="5">
@@ -2046,7 +2148,7 @@
         <f t="shared" si="0"/>
         <v>1205</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="12">
         <f t="shared" si="1"/>
         <v>0.227573182247403</v>
       </c>
@@ -2066,7 +2168,7 @@
         <f>N15-H15</f>
         <v>1205.05</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="12">
         <f>O15/H15</f>
         <v>0.227582625118036</v>
       </c>
@@ -2100,7 +2202,7 @@
         <f t="shared" si="0"/>
         <v>1321.25</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="13">
         <f t="shared" si="1"/>
         <v>0.255129133478156</v>
       </c>
@@ -2109,7 +2211,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="12"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="5">
@@ -2140,7 +2242,7 @@
         <f t="shared" si="0"/>
         <v>1096</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="12">
         <f t="shared" si="1"/>
         <v>0.202812731310141</v>
       </c>
@@ -2160,50 +2262,64 @@
         <f>N17-H17</f>
         <v>1096</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="12">
         <f>O17/H17</f>
         <v>0.202812731310141</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>113557</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>20200713</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>108.27</v>
       </c>
-      <c r="G18" s="7">
-        <v>50</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="5">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5">
         <v>5413.5</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>1086.5</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="12">
         <f t="shared" si="1"/>
         <v>0.200701948831625</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="12"/>
+      <c r="K18" s="5">
+        <v>20210305</v>
+      </c>
+      <c r="L18" s="5">
+        <v>130</v>
+      </c>
+      <c r="M18" s="5">
+        <v>50</v>
+      </c>
+      <c r="N18" s="5">
+        <v>6498.7</v>
+      </c>
+      <c r="O18" s="5">
+        <f>N18-H18</f>
+        <v>1085.2</v>
+      </c>
+      <c r="P18" s="12">
+        <f>O18/H18</f>
+        <v>0.200461808441858</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="7">
@@ -2234,7 +2350,7 @@
         <f t="shared" si="0"/>
         <v>860.1</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="13">
         <f t="shared" si="1"/>
         <v>0.152502703948652</v>
       </c>
@@ -2243,7 +2359,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="12"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7">
@@ -2274,7 +2390,7 @@
         <f t="shared" si="0"/>
         <v>1084</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="13">
         <f t="shared" si="1"/>
         <v>0.200147710487445</v>
       </c>
@@ -2283,7 +2399,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="12"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5">
@@ -2314,7 +2430,7 @@
         <f t="shared" si="0"/>
         <v>1116.7</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="12">
         <f t="shared" si="1"/>
         <v>0.207437816952427</v>
       </c>
@@ -2334,7 +2450,7 @@
         <f>N21-H21</f>
         <v>1116.7</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="12">
         <f>O17/H17</f>
         <v>0.202812731310141</v>
       </c>
@@ -2368,7 +2484,7 @@
         <f t="shared" si="0"/>
         <v>875</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="13">
         <f t="shared" si="1"/>
         <v>0.155400017404802</v>
       </c>
@@ -2377,7 +2493,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="12"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="7">
@@ -2408,7 +2524,7 @@
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="13">
         <f t="shared" si="1"/>
         <v>0.180872916325826</v>
       </c>
@@ -2417,167 +2533,181 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="12"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>113559</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>20200817</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>114.72</v>
       </c>
-      <c r="G24" s="7">
-        <v>50</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="5">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5">
         <v>5737.15</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <f t="shared" si="0"/>
         <v>764</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="12">
         <f t="shared" si="1"/>
         <v>0.133167164881518</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="12"/>
+      <c r="K24" s="5">
+        <v>20210318</v>
+      </c>
+      <c r="L24" s="5">
+        <v>130</v>
+      </c>
+      <c r="M24" s="5">
+        <v>50</v>
+      </c>
+      <c r="N24" s="5">
+        <v>6500</v>
+      </c>
+      <c r="O24" s="5">
+        <f>N24-H24</f>
+        <v>762.85</v>
+      </c>
+      <c r="P24" s="12">
+        <f>O24/H24</f>
+        <v>0.132966716923908</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="7">
+      <c r="A25" s="9">
         <v>123028</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="10">
         <v>20200831</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="9">
         <v>112.6</v>
       </c>
-      <c r="G25" s="7">
-        <v>50</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="G25" s="9">
+        <v>50</v>
+      </c>
+      <c r="H25" s="9">
         <v>5635.63</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="9">
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="14">
         <f t="shared" si="1"/>
         <v>0.154374932350066</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="12"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>123023</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="10">
         <v>20200907</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="9">
         <v>107.5</v>
       </c>
-      <c r="G26" s="7">
-        <v>50</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26" s="9">
+        <v>50</v>
+      </c>
+      <c r="H26" s="9">
         <v>5375</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="9">
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="14">
         <f t="shared" si="1"/>
         <v>0.209302325581395</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="12"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="7">
+      <c r="A27" s="9">
         <v>113568</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="10">
         <v>20200921</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="9">
         <v>107.99</v>
       </c>
-      <c r="G27" s="7">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="G27" s="9">
+        <v>50</v>
+      </c>
+      <c r="H27" s="9">
         <v>5400.58</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <f t="shared" si="0"/>
         <v>1100.5</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="14">
         <f t="shared" si="1"/>
         <v>0.203774409415285</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="12"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="5">
@@ -2608,7 +2738,7 @@
         <f t="shared" si="0"/>
         <v>950.15</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="12">
         <f t="shared" si="1"/>
         <v>0.171202825301585</v>
       </c>
@@ -2628,90 +2758,90 @@
         <f>N28-H28</f>
         <v>1200.15</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="12">
         <f>O28/H28</f>
         <v>0.216249087813184</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="7">
+      <c r="A29" s="9">
         <v>128025</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="10">
         <v>20200928</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="9">
         <v>106.871</v>
       </c>
-      <c r="G29" s="7">
-        <v>50</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="G29" s="9">
+        <v>50</v>
+      </c>
+      <c r="H29" s="9">
         <v>5343.55</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="9">
         <f t="shared" si="0"/>
         <v>1156.45</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="14">
         <f t="shared" si="1"/>
         <v>0.216419795828616</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="12"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="7">
+      <c r="A30" s="9">
         <v>128057</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="10">
         <v>20200928</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="9">
         <v>113.433</v>
       </c>
-      <c r="G30" s="7">
-        <v>50</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="9">
+        <v>50</v>
+      </c>
+      <c r="H30" s="9">
         <v>5671.65</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9">
         <f t="shared" si="0"/>
         <v>828.35</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="14">
         <f t="shared" si="1"/>
         <v>0.14605097282096</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="12"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="5">
@@ -2742,7 +2872,7 @@
         <f t="shared" si="0"/>
         <v>837.05</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="12">
         <f t="shared" si="1"/>
         <v>0.147811652937073</v>
       </c>
@@ -2762,90 +2892,90 @@
         <f>N31-H31</f>
         <v>887.05</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="12">
         <f>O31/H31</f>
         <v>0.156640973344282</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="7">
+      <c r="A32" s="9">
         <v>113570</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="10">
         <v>20201026</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="9">
         <v>109.84</v>
       </c>
-      <c r="G32" s="7">
-        <v>50</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G32" s="9">
+        <v>50</v>
+      </c>
+      <c r="H32" s="9">
         <v>5492</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="9">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="14">
         <f t="shared" si="1"/>
         <v>0.18353969410051</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="12"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="7">
+      <c r="A33" s="9">
         <v>113524</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="10">
         <v>20201026</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="9">
         <v>111.51</v>
       </c>
-      <c r="G33" s="7">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="G33" s="9">
+        <v>50</v>
+      </c>
+      <c r="H33" s="9">
         <v>5575.5</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="9">
         <f t="shared" si="0"/>
         <v>924.5</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="14">
         <f t="shared" si="1"/>
         <v>0.165814725136759</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="12"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="5">
@@ -2876,7 +3006,7 @@
         <f t="shared" si="0"/>
         <v>759.5</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="12">
         <f t="shared" si="1"/>
         <v>0.138835572616763</v>
       </c>
@@ -2896,185 +3026,185 @@
         <f>N34-H34</f>
         <v>1050.35</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="12">
         <f>O34/H34</f>
         <v>0.192002559181062</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="7">
+      <c r="A35" s="9">
         <v>128094</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="10">
         <v>20201111</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="9">
         <v>111.586</v>
       </c>
-      <c r="G35" s="7">
-        <v>50</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="G35" s="9">
+        <v>50</v>
+      </c>
+      <c r="H35" s="9">
         <v>5579.3</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="9">
         <f t="shared" si="0"/>
         <v>920.7</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="14">
         <f t="shared" si="1"/>
         <v>0.165020701521696</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="12"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="7">
+      <c r="A36" s="9">
         <v>128018</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="10">
         <v>20201116</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="9">
         <v>107.281</v>
       </c>
-      <c r="G36" s="7">
-        <v>50</v>
-      </c>
-      <c r="H36" s="7">
+      <c r="G36" s="9">
+        <v>50</v>
+      </c>
+      <c r="H36" s="9">
         <v>5364.05</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="9">
         <f t="shared" si="0"/>
         <v>1135.95</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="14">
         <f t="shared" si="1"/>
         <v>0.211770956646564</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="12"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="7">
+      <c r="A37" s="9">
         <v>128093</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="10">
         <v>20201123</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="9">
         <v>111.14</v>
       </c>
-      <c r="G37" s="7">
-        <v>50</v>
-      </c>
-      <c r="H37" s="7">
+      <c r="G37" s="9">
+        <v>50</v>
+      </c>
+      <c r="H37" s="9">
         <v>5557</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="9">
         <f t="shared" si="0"/>
         <v>943</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="14">
         <f t="shared" si="1"/>
         <v>0.169695879071441</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="12"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="7">
+      <c r="A38" s="9">
         <v>113033</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="10">
         <v>20201140</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="9">
         <v>109.464</v>
       </c>
-      <c r="G38" s="7">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="G38" s="9">
+        <v>50</v>
+      </c>
+      <c r="H38" s="9">
         <v>5473.2</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="9">
         <f t="shared" si="0"/>
         <v>1026.8</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="14">
         <f t="shared" si="1"/>
         <v>0.18760505737046</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="12"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="7">
+      <c r="A39" s="9">
         <v>128082</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>20201207</v>
       </c>
       <c r="F39" s="9">
@@ -3087,222 +3217,1619 @@
         <f>G39*F39</f>
         <v>5729.45</v>
       </c>
-      <c r="I39" s="7">
-        <f>(130-F39)*G39</f>
+      <c r="I39" s="9">
+        <f t="shared" si="0"/>
         <v>770.55</v>
       </c>
-      <c r="J39" s="11">
-        <f>I39/H39</f>
+      <c r="J39" s="14">
+        <f t="shared" si="1"/>
         <v>0.134489348890382</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="12"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="7">
+      <c r="A40" s="9">
         <v>128026</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="10">
         <v>20201215</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="9">
         <v>103.998</v>
       </c>
-      <c r="G40" s="7">
-        <v>50</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="G40" s="9">
+        <v>50</v>
+      </c>
+      <c r="H40" s="9">
         <v>5199.9</v>
       </c>
-      <c r="I40" s="7">
-        <f>(130-F40)*G40</f>
+      <c r="I40" s="9">
+        <f t="shared" si="0"/>
         <v>1300.1</v>
       </c>
-      <c r="J40" s="11">
-        <f>I40/H40</f>
+      <c r="J40" s="14">
+        <f t="shared" si="1"/>
         <v>0.250024038923825</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="12"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="7">
+      <c r="A41" s="9">
+        <v>128085</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="10">
+        <v>20201215</v>
+      </c>
+      <c r="F41" s="9">
+        <v>81.5</v>
+      </c>
+      <c r="G41" s="9">
+        <v>50</v>
+      </c>
+      <c r="H41" s="9">
+        <v>4079.08</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="0"/>
+        <v>2425</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="1"/>
+        <v>0.594496798297655</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="9">
         <v>113542</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="10">
         <v>20201221</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="9">
         <v>114.69</v>
       </c>
-      <c r="G41" s="7">
-        <v>50</v>
-      </c>
-      <c r="H41" s="7">
+      <c r="G42" s="9">
+        <v>50</v>
+      </c>
+      <c r="H42" s="9">
         <v>5734.5</v>
       </c>
-      <c r="I41" s="7">
-        <f>(130-F41)*G41</f>
+      <c r="I42" s="9">
+        <f t="shared" si="0"/>
         <v>765.5</v>
       </c>
-      <c r="J41" s="11">
-        <f>I41/H41</f>
+      <c r="J42" s="14">
+        <f t="shared" si="1"/>
         <v>0.133490278141076</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="7">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="9">
         <v>123049</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="10">
         <v>20210104</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="9">
         <v>111</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="9">
         <v>20</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="9">
         <v>2220</v>
       </c>
-      <c r="I42" s="7">
-        <f>(130-F42)*G42</f>
+      <c r="I43" s="9">
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="J42" s="11">
-        <f>I42/H42</f>
+      <c r="J43" s="14">
+        <f t="shared" si="1"/>
         <v>0.171171171171171</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="12"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="7">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="9">
         <v>128105</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E44" s="10">
         <v>20210104</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="9">
         <v>107.988</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G44" s="9">
         <v>30</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H44" s="9">
         <v>3239.64</v>
       </c>
-      <c r="I43" s="7">
-        <f>(130-F43)*G43</f>
+      <c r="I44" s="9">
+        <f t="shared" si="0"/>
         <v>660.36</v>
       </c>
-      <c r="J43" s="11">
-        <f>I43/H43</f>
+      <c r="J44" s="14">
+        <f t="shared" si="1"/>
         <v>0.203837463421862</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="12"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="7">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="9">
         <v>110060</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="10">
         <v>20210104</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="9">
         <v>110.6</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="9">
         <v>30</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="9">
         <v>3318</v>
       </c>
-      <c r="I44" s="7">
-        <f>(130-F44)*G44</f>
+      <c r="I45" s="9">
+        <f t="shared" si="0"/>
         <v>582</v>
       </c>
-      <c r="J44" s="11">
-        <f>I44/H44</f>
+      <c r="J45" s="14">
+        <f t="shared" si="1"/>
         <v>0.175406871609403</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="12"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="9">
+        <v>128018</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="10">
+        <v>20210118</v>
+      </c>
+      <c r="F46" s="9">
+        <v>98.9</v>
+      </c>
+      <c r="G46" s="9">
+        <v>20</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1978</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="0"/>
+        <v>622</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="1"/>
+        <v>0.314459049544995</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="9">
+        <v>113534</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="10">
+        <v>20210119</v>
+      </c>
+      <c r="F47" s="9">
+        <v>97.8</v>
+      </c>
+      <c r="G47" s="9">
+        <v>30</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2934</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="0"/>
+        <v>966</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="1"/>
+        <v>0.329243353783231</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="9">
+        <v>128100</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="10">
+        <v>20210119</v>
+      </c>
+      <c r="F48" s="9">
+        <v>95.414</v>
+      </c>
+      <c r="G48" s="9">
+        <v>20</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1858.9</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="0"/>
+        <v>691.72</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="1"/>
+        <v>0.372112539674001</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="9">
+        <v>128042</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="10">
+        <v>20210119</v>
+      </c>
+      <c r="F49" s="9">
+        <v>100.394</v>
+      </c>
+      <c r="G49" s="9">
+        <v>20</v>
+      </c>
+      <c r="H49" s="9">
+        <v>2007.88</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" ref="I49:I66" si="2">(130-F49)*G49</f>
+        <v>592.12</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" ref="J49:J66" si="3">I49/H49</f>
+        <v>0.294898101480168</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="9">
+        <v>113524</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="10">
+        <v>20210122</v>
+      </c>
+      <c r="F50" s="9">
+        <v>98.64</v>
+      </c>
+      <c r="G50" s="9">
+        <v>20</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1972.8</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="2"/>
+        <v>627.2</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="3"/>
+        <v>0.317923763179238</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="9">
+        <v>128071</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="10">
+        <v>20210125</v>
+      </c>
+      <c r="F51" s="9">
+        <v>107.431</v>
+      </c>
+      <c r="G51" s="9">
+        <v>20</v>
+      </c>
+      <c r="H51" s="9">
+        <v>2148.62</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="2"/>
+        <v>451.38</v>
+      </c>
+      <c r="J51" s="14">
+        <f t="shared" si="3"/>
+        <v>0.210079027468794</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="9">
+        <v>113030</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="10">
+        <v>20210125</v>
+      </c>
+      <c r="F52" s="9">
+        <v>108.07</v>
+      </c>
+      <c r="G52" s="9">
+        <v>20</v>
+      </c>
+      <c r="H52" s="9">
+        <v>2161.4</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="2"/>
+        <v>438.6</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="3"/>
+        <v>0.202924030720829</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="9">
+        <v>110071</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="10">
+        <v>20210201</v>
+      </c>
+      <c r="F53" s="9">
+        <v>93.705</v>
+      </c>
+      <c r="G53" s="9">
+        <v>20</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1874.1</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="2"/>
+        <v>725.9</v>
+      </c>
+      <c r="J53" s="14">
+        <f t="shared" si="3"/>
+        <v>0.387332586308095</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="9">
+        <v>113024</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="10">
+        <v>20210201</v>
+      </c>
+      <c r="F54" s="9">
+        <v>104</v>
+      </c>
+      <c r="G54" s="9">
+        <v>20</v>
+      </c>
+      <c r="H54" s="9">
+        <v>2080</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="9">
+        <v>128105</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="10">
+        <v>20210201</v>
+      </c>
+      <c r="F55" s="9">
+        <v>97.351</v>
+      </c>
+      <c r="G55" s="9">
+        <v>20</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1947.01</v>
+      </c>
+      <c r="I55" s="9">
+        <f t="shared" si="2"/>
+        <v>652.98</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="3"/>
+        <v>0.335375781326239</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="9">
+        <v>113505</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="10">
+        <v>20210201</v>
+      </c>
+      <c r="F56" s="9">
+        <v>100.63</v>
+      </c>
+      <c r="G56" s="9">
+        <v>20</v>
+      </c>
+      <c r="H56" s="9">
+        <v>2012.6</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="2"/>
+        <v>587.4</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="3"/>
+        <v>0.291861273973964</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="14"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="9">
+        <v>128081</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="10">
+        <v>20210201</v>
+      </c>
+      <c r="F57" s="9">
+        <v>95.837</v>
+      </c>
+      <c r="G57" s="9">
+        <v>20</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1916.74</v>
+      </c>
+      <c r="I57" s="9">
+        <f t="shared" si="2"/>
+        <v>683.26</v>
+      </c>
+      <c r="J57" s="14">
+        <f t="shared" si="3"/>
+        <v>0.35646983941484</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="9">
+        <v>128083</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="10">
+        <v>20210208</v>
+      </c>
+      <c r="F58" s="9">
+        <v>98.789</v>
+      </c>
+      <c r="G58" s="9">
+        <v>20</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1975.78</v>
+      </c>
+      <c r="I58" s="9">
+        <f t="shared" si="2"/>
+        <v>624.22</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="3"/>
+        <v>0.315935984775633</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="14"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="9">
+        <v>110051</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="10">
+        <v>20210208</v>
+      </c>
+      <c r="F59" s="9">
+        <v>106.47</v>
+      </c>
+      <c r="G59" s="9">
+        <v>20</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2129.4</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" si="2"/>
+        <v>470.6</v>
+      </c>
+      <c r="J59" s="14">
+        <f t="shared" si="3"/>
+        <v>0.221001221001221</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="14"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="9">
+        <v>113549</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="10">
+        <v>20210208</v>
+      </c>
+      <c r="F60" s="9">
+        <v>90.6</v>
+      </c>
+      <c r="G60" s="9">
+        <v>20</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1812</v>
+      </c>
+      <c r="I60" s="9">
+        <f t="shared" si="2"/>
+        <v>788</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="3"/>
+        <v>0.434878587196468</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="14"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="9">
+        <v>113563</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="10">
+        <v>20210222</v>
+      </c>
+      <c r="F61" s="9">
+        <v>104.15</v>
+      </c>
+      <c r="G61" s="9">
+        <v>20</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2083</v>
+      </c>
+      <c r="I61" s="9">
+        <f t="shared" si="2"/>
+        <v>517</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="3"/>
+        <v>0.248199711953913</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="14"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="9">
+        <v>110068</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="10">
+        <v>20210301</v>
+      </c>
+      <c r="F62" s="9">
+        <v>99.78</v>
+      </c>
+      <c r="G62" s="9">
+        <v>20</v>
+      </c>
+      <c r="H62" s="9">
+        <v>1995.6</v>
+      </c>
+      <c r="I62" s="9">
+        <f t="shared" si="2"/>
+        <v>604.4</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="3"/>
+        <v>0.30286630587292</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="9">
+        <v>113039</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="10">
+        <v>20210308</v>
+      </c>
+      <c r="F63" s="9">
+        <v>101.96</v>
+      </c>
+      <c r="G63" s="9">
+        <v>20</v>
+      </c>
+      <c r="H63" s="9">
+        <v>2039.2</v>
+      </c>
+      <c r="I63" s="9">
+        <f t="shared" si="2"/>
+        <v>560.8</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="3"/>
+        <v>0.275009807767752</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="9">
+        <v>110074</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="10">
+        <v>20210308</v>
+      </c>
+      <c r="F64" s="9">
+        <v>102.86</v>
+      </c>
+      <c r="G64" s="9">
+        <v>20</v>
+      </c>
+      <c r="H64" s="9">
+        <v>2057.2</v>
+      </c>
+      <c r="I64" s="9">
+        <f t="shared" si="2"/>
+        <v>542.8</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="3"/>
+        <v>0.263853781839393</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="14"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="9">
+        <v>127020</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="10">
+        <v>20210308</v>
+      </c>
+      <c r="F65" s="9">
+        <v>109.899</v>
+      </c>
+      <c r="G65" s="9">
+        <v>20</v>
+      </c>
+      <c r="H65" s="9">
+        <v>2197.98</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" si="2"/>
+        <v>402.02</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="3"/>
+        <v>0.182904303041884</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="15">
+        <v>113039</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="16">
+        <v>20210510</v>
+      </c>
+      <c r="F66" s="15">
+        <v>103.58</v>
+      </c>
+      <c r="G66" s="15">
+        <v>10</v>
+      </c>
+      <c r="H66" s="15">
+        <v>1035.8</v>
+      </c>
+      <c r="I66" s="15">
+        <f t="shared" si="2"/>
+        <v>264.2</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="3"/>
+        <v>0.255068546051361</v>
+      </c>
+      <c r="K66" s="15">
+        <v>20210616</v>
+      </c>
+      <c r="L66" s="15">
+        <v>126.95</v>
+      </c>
+      <c r="M66" s="15">
+        <v>10</v>
+      </c>
+      <c r="N66" s="15">
+        <v>1269.5</v>
+      </c>
+      <c r="O66" s="15">
+        <f>N66-H66</f>
+        <v>233.7</v>
+      </c>
+      <c r="P66" s="19">
+        <f>O66/H66</f>
+        <v>0.22562270708631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="15">
+        <v>110071</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="17">
+        <v>20210510</v>
+      </c>
+      <c r="F67" s="15">
+        <v>103.14</v>
+      </c>
+      <c r="G67" s="15">
+        <v>10</v>
+      </c>
+      <c r="H67" s="15">
+        <v>1031.4</v>
+      </c>
+      <c r="I67" s="15">
+        <f>(130-F67)*G67</f>
+        <v>268.6</v>
+      </c>
+      <c r="J67" s="12">
+        <f>I67/H67</f>
+        <v>0.260422726391313</v>
+      </c>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="19"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="15">
+        <v>113539</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="17">
+        <v>20210510</v>
+      </c>
+      <c r="F68" s="15">
+        <v>102.39</v>
+      </c>
+      <c r="G68" s="15">
+        <v>10</v>
+      </c>
+      <c r="H68" s="15">
+        <v>1023.9</v>
+      </c>
+      <c r="I68" s="15">
+        <f>(130-F68)*G68</f>
+        <v>276.1</v>
+      </c>
+      <c r="J68" s="12">
+        <f>I68/H68</f>
+        <v>0.269655239769509</v>
+      </c>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="19"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="15">
+        <v>128081</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="17">
+        <v>20210517</v>
+      </c>
+      <c r="F69" s="15">
+        <v>105</v>
+      </c>
+      <c r="G69" s="15">
+        <v>10</v>
+      </c>
+      <c r="H69" s="15">
+        <v>1050</v>
+      </c>
+      <c r="I69" s="15">
+        <f>(130-F69)*G69</f>
+        <v>250</v>
+      </c>
+      <c r="J69" s="12">
+        <f>I69/H69</f>
+        <v>0.238095238095238</v>
+      </c>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="19"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="15">
+        <v>110067</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="17">
+        <v>20210517</v>
+      </c>
+      <c r="F70" s="15">
+        <v>107.08</v>
+      </c>
+      <c r="G70" s="15">
+        <v>10</v>
+      </c>
+      <c r="H70" s="15">
+        <v>1070.8</v>
+      </c>
+      <c r="I70" s="15">
+        <f>(130-F70)*G70</f>
+        <v>229.2</v>
+      </c>
+      <c r="J70" s="12">
+        <f>I70/H70</f>
+        <v>0.214045573403063</v>
+      </c>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="19"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="15">
+        <v>113505</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="17">
+        <v>20210524</v>
+      </c>
+      <c r="F71" s="15">
+        <v>102.45</v>
+      </c>
+      <c r="G71" s="15">
+        <v>10</v>
+      </c>
+      <c r="H71" s="15">
+        <v>1024.5</v>
+      </c>
+      <c r="I71" s="15">
+        <f>(130-F71)*G71</f>
+        <v>275.5</v>
+      </c>
+      <c r="J71" s="12">
+        <f>I71/H71</f>
+        <v>0.268911664226452</v>
+      </c>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="19"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="15">
+        <v>128105</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="17">
+        <v>20210607</v>
+      </c>
+      <c r="F72" s="15">
+        <v>106.74</v>
+      </c>
+      <c r="G72" s="15">
+        <v>10</v>
+      </c>
+      <c r="H72" s="15">
+        <v>1067.4</v>
+      </c>
+      <c r="I72" s="15">
+        <f>(130-F72)*G72</f>
+        <v>232.6</v>
+      </c>
+      <c r="J72" s="12">
+        <f>I72/H72</f>
+        <v>0.217912685029043</v>
+      </c>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="15">
+        <v>128140</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="17">
+        <v>20210617</v>
+      </c>
+      <c r="F73" s="15">
+        <v>106.991</v>
+      </c>
+      <c r="G73" s="15">
+        <v>10</v>
+      </c>
+      <c r="H73" s="15">
+        <v>1069.91</v>
+      </c>
+      <c r="I73" s="15">
+        <f>(130-F73)*G73</f>
+        <v>230.09</v>
+      </c>
+      <c r="J73" s="12">
+        <f>I73/H73</f>
+        <v>0.215055471955585</v>
+      </c>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="19"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="15">
+        <v>113039</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="17">
+        <v>20210621</v>
+      </c>
+      <c r="F74" s="18">
+        <v>109.5</v>
+      </c>
+      <c r="G74" s="18">
+        <v>10</v>
+      </c>
+      <c r="H74" s="18">
+        <v>1095</v>
+      </c>
+      <c r="I74" s="15">
+        <f>(130-F74)*G74</f>
+        <v>205</v>
+      </c>
+      <c r="J74" s="12">
+        <f>I74/H74</f>
+        <v>0.187214611872146</v>
+      </c>
+      <c r="K74" s="18">
+        <v>20210622</v>
+      </c>
+      <c r="L74" s="18">
+        <v>130.31</v>
+      </c>
+      <c r="M74" s="18">
+        <v>10</v>
+      </c>
+      <c r="N74" s="18">
+        <v>1303.1</v>
+      </c>
+      <c r="O74" s="18">
+        <f>N74-H74</f>
+        <v>208.1</v>
+      </c>
+      <c r="P74" s="19">
+        <f>O74/H74</f>
+        <v>0.190045662100457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="15">
+        <v>127020</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="17">
+        <v>20210621</v>
+      </c>
+      <c r="F75" s="15">
+        <v>110.4</v>
+      </c>
+      <c r="G75" s="15">
+        <v>10</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1104</v>
+      </c>
+      <c r="I75" s="15">
+        <f>(130-F75)*G75</f>
+        <v>196</v>
+      </c>
+      <c r="J75" s="12">
+        <f>I75/H75</f>
+        <v>0.177536231884058</v>
+      </c>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="20"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="20"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="20"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="20"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="20"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="20"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="20"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="20"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P82">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/CB/可转债交易数据.xlsx
+++ b/CB/可转债交易数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
   <si>
     <t>转债代码</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>润建转债</t>
+  </si>
+  <si>
+    <t>林洋转债</t>
+  </si>
+  <si>
+    <t>岩土转债</t>
+  </si>
+  <si>
+    <t>旺能转债</t>
+  </si>
+  <si>
+    <t>超声转债</t>
   </si>
 </sst>
 </file>
@@ -411,30 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +437,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,15 +487,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,15 +527,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,32 +551,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,37 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,31 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +707,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,25 +749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,32 +808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,11 +832,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,17 +851,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -893,6 +879,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -901,10 +913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,16 +925,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,116 +946,116 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,14 +1107,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1431,7 +1437,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3618,11 +3624,11 @@
         <v>2007.88</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" ref="I49:I66" si="2">(130-F49)*G49</f>
+        <f t="shared" ref="I49:I78" si="2">(130-F49)*G49</f>
         <v>592.12</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" ref="J49:J66" si="3">I49/H49</f>
+        <f t="shared" ref="J49:J78" si="3">I49/H49</f>
         <v>0.294898101480168</v>
       </c>
       <c r="K49" s="9"/>
@@ -4273,31 +4279,31 @@
       <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="15">
+      <c r="A66" s="5">
         <v>113039</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="6">
         <v>20210510</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F66" s="5">
         <v>103.58</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="5">
         <v>10</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="5">
         <v>1035.8</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="5">
         <f t="shared" si="2"/>
         <v>264.2</v>
       </c>
@@ -4305,23 +4311,23 @@
         <f t="shared" si="3"/>
         <v>0.255068546051361</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="5">
         <v>20210616</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="5">
         <v>126.95</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="5">
         <v>10</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="5">
         <v>1269.5</v>
       </c>
-      <c r="O66" s="15">
+      <c r="O66" s="5">
         <f>N66-H66</f>
         <v>233.7</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P66" s="12">
         <f>O66/H66</f>
         <v>0.22562270708631</v>
       </c>
@@ -4339,7 +4345,7 @@
       <c r="D67" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="16">
         <v>20210510</v>
       </c>
       <c r="F67" s="15">
@@ -4352,19 +4358,19 @@
         <v>1031.4</v>
       </c>
       <c r="I67" s="15">
-        <f>(130-F67)*G67</f>
+        <f t="shared" si="2"/>
         <v>268.6</v>
       </c>
       <c r="J67" s="12">
-        <f>I67/H67</f>
+        <f t="shared" si="3"/>
         <v>0.260422726391313</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="19"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="18"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="15">
@@ -4379,7 +4385,7 @@
       <c r="D68" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="16">
         <v>20210510</v>
       </c>
       <c r="F68" s="15">
@@ -4392,19 +4398,19 @@
         <v>1023.9</v>
       </c>
       <c r="I68" s="15">
-        <f>(130-F68)*G68</f>
+        <f t="shared" si="2"/>
         <v>276.1</v>
       </c>
       <c r="J68" s="12">
-        <f>I68/H68</f>
+        <f t="shared" si="3"/>
         <v>0.269655239769509</v>
       </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="19"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="18"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="15">
@@ -4419,7 +4425,7 @@
       <c r="D69" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="16">
         <v>20210517</v>
       </c>
       <c r="F69" s="15">
@@ -4432,19 +4438,19 @@
         <v>1050</v>
       </c>
       <c r="I69" s="15">
-        <f>(130-F69)*G69</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="J69" s="12">
-        <f>I69/H69</f>
+        <f t="shared" si="3"/>
         <v>0.238095238095238</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="19"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="18"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="15">
@@ -4459,7 +4465,7 @@
       <c r="D70" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="16">
         <v>20210517</v>
       </c>
       <c r="F70" s="15">
@@ -4472,19 +4478,19 @@
         <v>1070.8</v>
       </c>
       <c r="I70" s="15">
-        <f>(130-F70)*G70</f>
+        <f t="shared" si="2"/>
         <v>229.2</v>
       </c>
       <c r="J70" s="12">
-        <f>I70/H70</f>
+        <f t="shared" si="3"/>
         <v>0.214045573403063</v>
       </c>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="19"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="18"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="15">
@@ -4499,7 +4505,7 @@
       <c r="D71" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>20210524</v>
       </c>
       <c r="F71" s="15">
@@ -4512,19 +4518,19 @@
         <v>1024.5</v>
       </c>
       <c r="I71" s="15">
-        <f>(130-F71)*G71</f>
+        <f t="shared" si="2"/>
         <v>275.5</v>
       </c>
       <c r="J71" s="12">
-        <f>I71/H71</f>
+        <f t="shared" si="3"/>
         <v>0.268911664226452</v>
       </c>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="19"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="18"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="15">
@@ -4539,7 +4545,7 @@
       <c r="D72" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="16">
         <v>20210607</v>
       </c>
       <c r="F72" s="15">
@@ -4552,19 +4558,19 @@
         <v>1067.4</v>
       </c>
       <c r="I72" s="15">
-        <f>(130-F72)*G72</f>
+        <f t="shared" si="2"/>
         <v>232.6</v>
       </c>
       <c r="J72" s="12">
-        <f>I72/H72</f>
+        <f t="shared" si="3"/>
         <v>0.217912685029043</v>
       </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="19"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="18"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="15">
@@ -4579,7 +4585,7 @@
       <c r="D73" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="16">
         <v>20210617</v>
       </c>
       <c r="F73" s="15">
@@ -4592,70 +4598,70 @@
         <v>1069.91</v>
       </c>
       <c r="I73" s="15">
-        <f>(130-F73)*G73</f>
+        <f t="shared" si="2"/>
         <v>230.09</v>
       </c>
       <c r="J73" s="12">
-        <f>I73/H73</f>
+        <f t="shared" si="3"/>
         <v>0.215055471955585</v>
       </c>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="19"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="18"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="15">
+      <c r="A74" s="5">
         <v>113039</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="6">
         <v>20210621</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="5">
         <v>109.5</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="5">
         <v>10</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="5">
         <v>1095</v>
       </c>
-      <c r="I74" s="15">
-        <f>(130-F74)*G74</f>
+      <c r="I74" s="5">
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="J74" s="12">
-        <f>I74/H74</f>
+        <f t="shared" si="3"/>
         <v>0.187214611872146</v>
       </c>
-      <c r="K74" s="18">
+      <c r="K74" s="5">
         <v>20210622</v>
       </c>
-      <c r="L74" s="18">
+      <c r="L74" s="5">
         <v>130.31</v>
       </c>
-      <c r="M74" s="18">
+      <c r="M74" s="5">
         <v>10</v>
       </c>
-      <c r="N74" s="18">
+      <c r="N74" s="5">
         <v>1303.1</v>
       </c>
-      <c r="O74" s="18">
+      <c r="O74" s="5">
         <f>N74-H74</f>
         <v>208.1</v>
       </c>
-      <c r="P74" s="19">
+      <c r="P74" s="12">
         <f>O74/H74</f>
         <v>0.190045662100457</v>
       </c>
@@ -4686,145 +4692,233 @@
         <v>1104</v>
       </c>
       <c r="I75" s="15">
-        <f>(130-F75)*G75</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="J75" s="12">
-        <f>I75/H75</f>
+        <f t="shared" si="3"/>
         <v>0.177536231884058</v>
       </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="20"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="18"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="20"/>
+      <c r="A76" s="15">
+        <v>113014</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="17">
+        <v>20210705</v>
+      </c>
+      <c r="F76" s="15">
+        <v>107.25</v>
+      </c>
+      <c r="G76" s="15">
+        <v>10</v>
+      </c>
+      <c r="H76" s="15">
+        <v>1072.5</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" si="2"/>
+        <v>227.5</v>
+      </c>
+      <c r="J76" s="12">
+        <f t="shared" si="3"/>
+        <v>0.212121212121212</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="18"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="20"/>
+      <c r="A77" s="15">
+        <v>128037</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="17">
+        <v>20210705</v>
+      </c>
+      <c r="F77" s="15">
+        <v>106.739</v>
+      </c>
+      <c r="G77" s="15">
+        <v>10</v>
+      </c>
+      <c r="H77" s="15">
+        <v>1067.39</v>
+      </c>
+      <c r="I77" s="15">
+        <f t="shared" si="2"/>
+        <v>232.61</v>
+      </c>
+      <c r="J77" s="12">
+        <f t="shared" si="3"/>
+        <v>0.217924095222927</v>
+      </c>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="18"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="20"/>
+      <c r="A78" s="15">
+        <v>128141</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="17">
+        <v>20210705</v>
+      </c>
+      <c r="F78" s="15">
+        <v>109.427</v>
+      </c>
+      <c r="G78" s="15">
+        <v>10</v>
+      </c>
+      <c r="H78" s="15">
+        <v>1094.27</v>
+      </c>
+      <c r="I78" s="15">
+        <f t="shared" si="2"/>
+        <v>205.73</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" si="3"/>
+        <v>0.188006616283001</v>
+      </c>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="18"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="20"/>
+      <c r="A79" s="15">
+        <v>127026</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="17">
+        <v>20210712</v>
+      </c>
+      <c r="F79" s="15">
+        <v>107.506</v>
+      </c>
+      <c r="G79" s="15">
+        <v>10</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1075.06</v>
+      </c>
+      <c r="I79" s="15">
+        <f>(130-F79)*G79</f>
+        <v>224.94</v>
+      </c>
+      <c r="J79" s="12">
+        <f>I79/H79</f>
+        <v>0.209234833404647</v>
+      </c>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="18"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="20"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="18"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="20"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="18"/>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="20"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P82">

--- a/CB/可转债交易数据.xlsx
+++ b/CB/可转债交易数据.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800"/>
+    <workbookView windowWidth="19815" windowHeight="7800"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="买卖" sheetId="1" r:id="rId1"/>
+    <sheet name="新债申购" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">买卖!$A$1:$P$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
   <si>
     <t>转债代码</t>
   </si>
@@ -392,6 +393,36 @@
   </si>
   <si>
     <t>超声转债</t>
+  </si>
+  <si>
+    <t>英特转债</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>转债数量</t>
+  </si>
+  <si>
+    <t>交易时间</t>
+  </si>
+  <si>
+    <t>买入总金额</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>国微转债</t>
+  </si>
+  <si>
+    <t>银轮转债</t>
+  </si>
+  <si>
+    <t>凤21转</t>
+  </si>
+  <si>
+    <t>东财转3</t>
   </si>
 </sst>
 </file>
@@ -399,10 +430,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -430,42 +461,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,6 +470,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,17 +520,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,6 +540,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,9 +583,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,13 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,49 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,19 +684,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,19 +732,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,19 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,19 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,15 +835,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,7 +872,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -894,17 +936,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,10 +944,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,156 +956,174 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1089,10 +1138,10 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1101,11 +1150,20 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,3488 +1495,3566 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="7" customWidth="1"/>
     <col min="6" max="7" width="8.875" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="8" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
     <col min="12" max="13" width="8.875" customWidth="1"/>
     <col min="14" max="14" width="10.875" customWidth="1"/>
     <col min="15" max="15" width="9.375"/>
-    <col min="16" max="16" width="12.625" style="2"/>
+    <col min="16" max="16" width="12.625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="5">
+      <c r="A2" s="11">
         <v>128093</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
         <v>20200206</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="11">
         <v>106.001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="11">
         <v>50</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="11">
         <v>5300.05</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="11">
         <f>(130-F2)*G2</f>
         <v>1199.95</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="18">
         <f>I2/H2</f>
         <v>0.226403524495052</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="11">
         <v>20200601</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="11">
         <v>107.524</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="11">
         <v>50</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="11">
         <f>4301.04+1075.24</f>
         <v>5376.28</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="11">
         <f>N2-H2</f>
         <v>76.2299999999996</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="18">
         <f>O2/H2</f>
         <v>0.0143828831803473</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>128056</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="12">
         <v>20200206</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="11">
         <v>100.3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="11">
         <v>50</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="11">
         <v>5015</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="11">
         <f t="shared" ref="I3:I48" si="0">(130-F3)*G3</f>
         <v>1485</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="18">
         <f t="shared" ref="J3:J48" si="1">I3/H3</f>
         <v>0.296111665004985</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="11">
         <v>20200325</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="11">
         <v>145.397</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="11">
         <v>50</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="11">
         <v>7269.85</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="11">
         <f>N3-H3</f>
         <v>2254.85</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="18">
         <f>O3/H3</f>
         <v>0.449621136590229</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="7">
+      <c r="A4" s="13">
         <v>128085</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="14">
         <v>20200408</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="13">
         <v>112.6</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="13">
         <v>40</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="13">
         <v>4504</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="19">
         <f t="shared" si="1"/>
         <v>0.154529307282416</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="7">
+      <c r="A5" s="13">
         <v>128081</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="14">
         <v>20200408</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13">
         <v>112</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="13">
         <v>40</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="13">
         <v>4480</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="19">
         <f t="shared" si="1"/>
         <v>0.160714285714286</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="5">
+      <c r="A6" s="11">
         <v>128050</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="12">
         <v>20200414</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="11">
         <v>111.1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="11">
         <v>50</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <v>5555</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>945</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
         <v>0.17011701170117</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="11">
         <v>20201022</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="11">
         <v>130</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="11">
         <v>50</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="11">
         <v>6500</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="11">
         <f>N6-H6</f>
         <v>945</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="18">
         <f>O6/H6</f>
         <v>0.17011701170117</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="7">
+      <c r="A7" s="13">
         <v>128066</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="14">
         <v>20200420</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="13">
         <v>112.083</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="13">
         <v>40</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="13">
         <v>4483.32</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>716.68</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="19">
         <f t="shared" si="1"/>
         <v>0.159854750497399</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="7">
+      <c r="A8" s="13">
         <v>110052</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="14">
         <v>20200608</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
         <v>112.33</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="13">
         <v>50</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="13">
         <v>5616.5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>883.5</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="19">
         <f t="shared" si="1"/>
         <v>0.157304371049586</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5">
+      <c r="A9" s="11">
         <v>113545</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="12">
         <v>20200608</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <v>109.1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="11">
         <v>50</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <v>5455</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
         <v>0.191567369385885</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="11">
         <v>20200709</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="11">
         <v>130.02</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="11">
         <v>5</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="11">
         <v>6501</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="11">
         <f>N9-H9</f>
         <v>1046</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="18">
         <f>O9/H9</f>
         <v>0.191750687442713</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="7">
+      <c r="A10" s="13">
         <v>113534</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="14">
         <v>20200608</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="13">
         <v>111.9</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="13">
         <v>50</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="13">
         <v>5595</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>905</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="19">
         <f t="shared" si="1"/>
         <v>0.161751563896336</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="5">
+      <c r="A11" s="11">
         <v>113537</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="12">
         <v>20200616</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="11">
         <v>112.72</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="11">
         <v>50</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>5636</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="18">
         <f t="shared" si="1"/>
         <v>0.153300212916962</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="11">
         <v>20200811</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="11">
         <v>130</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="11">
         <v>5</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="11">
         <v>6500</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="11">
         <f>N11-H11</f>
         <v>864</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="18">
         <f>O11/H11</f>
         <v>0.153300212916962</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="5">
+      <c r="A12" s="11">
         <v>128071</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="12">
         <v>20200616</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="11">
         <v>112.7</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="11">
         <v>50</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="11">
         <v>5635</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="18">
         <f t="shared" si="1"/>
         <v>0.153504880212955</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="11">
         <v>20200903</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="11">
         <v>132.45</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="11">
         <v>50</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="11">
         <f>L12*M12</f>
         <v>6622.5</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="11">
         <f>N12-H12</f>
         <v>987.499999999999</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="18">
         <f>O12/H12</f>
         <v>0.175244010647737</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="5">
+      <c r="A13" s="11">
         <v>128073</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="12">
         <v>20200617</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="11">
         <v>105.1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="11">
         <v>50</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="11">
         <v>5255</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="11">
         <f t="shared" si="0"/>
         <v>1245</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="18">
         <f t="shared" si="1"/>
         <v>0.236917221693625</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="11">
         <v>20200811</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="11">
         <v>130</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="11">
         <v>50</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="11">
         <v>6500</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="11">
         <f>N13-H13</f>
         <v>1245</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="18">
         <f>O13/H13</f>
         <v>0.236917221693625</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="7">
+      <c r="A14" s="13">
         <v>113546</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="14">
         <v>20200622</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="13">
         <v>106.2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="13">
         <v>50</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="13">
         <v>5310</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>1190</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="19">
         <f t="shared" si="1"/>
         <v>0.224105461393597</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="5">
+      <c r="A15" s="11">
         <v>128022</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="12">
         <v>20200629</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="11">
         <v>105.9</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="11">
         <v>50</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="11">
         <v>5295</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>1205</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="18">
         <f t="shared" si="1"/>
         <v>0.227573182247403</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="11">
         <v>20200707</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="11">
         <v>130.001</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="11">
         <v>50</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="11">
         <v>6500.05</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="11">
         <f>N15-H15</f>
         <v>1205.05</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="18">
         <f>O15/H15</f>
         <v>0.227582625118036</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="7">
+      <c r="A16" s="13">
         <v>128087</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="14">
         <v>20200707</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="13">
         <v>103.575</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="13">
         <v>50</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="13">
         <v>5178.75</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>1321.25</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="19">
         <f t="shared" si="1"/>
         <v>0.255129133478156</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="5">
+      <c r="A17" s="11">
         <v>110058</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="12">
         <v>20200713</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="11">
         <v>108.08</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="11">
         <v>50</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="11">
         <v>5404</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="11">
         <f t="shared" si="0"/>
         <v>1096</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="18">
         <f t="shared" si="1"/>
         <v>0.202812731310141</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="11">
         <v>20201020</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="11">
         <v>130</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="11">
         <v>50</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="11">
         <v>6500</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="11">
         <f>N17-H17</f>
         <v>1096</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="18">
         <f>O17/H17</f>
         <v>0.202812731310141</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="5">
+      <c r="A18" s="11">
         <v>113557</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="12">
         <v>20200713</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="11">
         <v>108.27</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="11">
         <v>50</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="11">
         <v>5413.5</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>1086.5</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="18">
         <f t="shared" si="1"/>
         <v>0.200701948831625</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="11">
         <v>20210305</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="11">
         <v>130</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="11">
         <v>50</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="11">
         <v>6498.7</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="11">
         <f>N18-H18</f>
         <v>1085.2</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="18">
         <f>O18/H18</f>
         <v>0.200461808441858</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="7">
+      <c r="A19" s="13">
         <v>128042</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="14">
         <v>20200713</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="13">
         <v>112.798</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="13">
         <v>50</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="13">
         <v>5639.9</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>860.1</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="19">
         <f t="shared" si="1"/>
         <v>0.152502703948652</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="7">
+      <c r="A20" s="13">
         <v>113549</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="14">
         <v>20200727</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="13">
         <v>108.32</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="13">
         <v>50</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="13">
         <v>5416</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
         <v>1084</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="19">
         <f t="shared" si="1"/>
         <v>0.200147710487445</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="5">
+      <c r="A21" s="11">
         <v>128056</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="12">
         <v>20200803</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="11">
         <v>107.666</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="11">
         <v>50</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="11">
         <v>5383.3</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
         <v>1116.7</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="18">
         <f t="shared" si="1"/>
         <v>0.207437816952427</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="11">
         <v>20201022</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="11">
         <v>130</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="11">
         <v>50</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="11">
         <v>6500</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="11">
         <f>N21-H21</f>
         <v>1116.7</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="18">
         <f>O17/H17</f>
         <v>0.202812731310141</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="7">
+      <c r="A22" s="13">
         <v>128063</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="14">
         <v>20200817</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="13">
         <v>112.5</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="13">
         <v>50</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="13">
         <v>5630.63</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="13">
         <f t="shared" si="0"/>
         <v>875</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="19">
         <f t="shared" si="1"/>
         <v>0.155400017404802</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="7">
+      <c r="A23" s="13">
         <v>110064</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="14">
         <v>20200817</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="13">
         <v>110.1</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="13">
         <v>50</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="13">
         <v>5501.1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="13">
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="19">
         <f t="shared" si="1"/>
         <v>0.180872916325826</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="5">
+      <c r="A24" s="11">
         <v>113559</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="12">
         <v>20200817</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="11">
         <v>114.72</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="11">
         <v>50</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="11">
         <v>5737.15</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="11">
         <f t="shared" si="0"/>
         <v>764</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="18">
         <f t="shared" si="1"/>
         <v>0.133167164881518</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="11">
         <v>20210318</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="11">
         <v>130</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="11">
         <v>50</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="11">
         <v>6500</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="11">
         <f>N24-H24</f>
         <v>762.85</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="18">
         <f>O24/H24</f>
         <v>0.132966716923908</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="9">
+      <c r="A25" s="15">
         <v>123028</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="16">
         <v>20200831</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="15">
         <v>112.6</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="15">
         <v>50</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="15">
         <v>5635.63</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="15">
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>0.154374932350066</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="14"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="20"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="9">
+      <c r="A26" s="15">
         <v>123023</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="16">
         <v>20200907</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="15">
         <v>107.5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="15">
         <v>50</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="15">
         <v>5375</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="15">
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>0.209302325581395</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="9">
+      <c r="A27" s="15">
         <v>113568</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="16">
         <v>20200921</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="15">
         <v>107.99</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="15">
         <v>50</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="15">
         <v>5400.58</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="15">
         <f t="shared" si="0"/>
         <v>1100.5</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="20">
         <f t="shared" si="1"/>
         <v>0.203774409415285</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="14"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="5">
+      <c r="A28" s="11">
         <v>128073</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="12">
         <v>20200928</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="11">
         <v>110.997</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="11">
         <v>50</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="11">
         <v>5549.85</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="11">
         <f t="shared" si="0"/>
         <v>950.15</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="18">
         <f t="shared" si="1"/>
         <v>0.171202825301585</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="11">
         <v>20201021</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="11">
         <v>135</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="11">
         <v>50</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="11">
         <v>6750</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="11">
         <f>N28-H28</f>
         <v>1200.15</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="18">
         <f>O28/H28</f>
         <v>0.216249087813184</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="9">
+      <c r="A29" s="15">
         <v>128025</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="16">
         <v>20200928</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="15">
         <v>106.871</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="15">
         <v>50</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="15">
         <v>5343.55</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="15">
         <f t="shared" si="0"/>
         <v>1156.45</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="20">
         <f t="shared" si="1"/>
         <v>0.216419795828616</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="20"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="9">
+      <c r="A30" s="15">
         <v>128057</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="16">
         <v>20200928</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="15">
         <v>113.433</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="15">
         <v>50</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="15">
         <v>5671.65</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="15">
         <f t="shared" si="0"/>
         <v>828.35</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="20">
         <f t="shared" si="1"/>
         <v>0.14605097282096</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="20"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="5">
+      <c r="A31" s="11">
         <v>128082</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="12">
         <v>20201026</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="11">
         <v>113.259</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="11">
         <v>50</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="11">
         <v>5662.95</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="11">
         <f t="shared" si="0"/>
         <v>837.05</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="18">
         <f t="shared" si="1"/>
         <v>0.147811652937073</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="11">
         <v>20201126</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="11">
         <v>131</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="11">
         <v>50</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="11">
         <v>6550</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="11">
         <f>N31-H31</f>
         <v>887.05</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="18">
         <f>O31/H31</f>
         <v>0.156640973344282</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="9">
+      <c r="A32" s="15">
         <v>113570</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="16">
         <v>20201026</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="15">
         <v>109.84</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="15">
         <v>50</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="15">
         <v>5492</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="15">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="20">
         <f t="shared" si="1"/>
         <v>0.18353969410051</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="14"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="20"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="9">
+      <c r="A33" s="15">
         <v>113524</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="16">
         <v>20201026</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="15">
         <v>111.51</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="15">
         <v>50</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="15">
         <v>5575.5</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="15">
         <f t="shared" si="0"/>
         <v>924.5</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="20">
         <f t="shared" si="1"/>
         <v>0.165814725136759</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="14"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="5">
+      <c r="A34" s="11">
         <v>128094</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="12">
         <v>20201026</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="11">
         <v>114.81</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="11">
         <v>50</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="11">
         <v>5470.5</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="11">
         <f t="shared" si="0"/>
         <v>759.5</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="18">
         <f t="shared" si="1"/>
         <v>0.138835572616763</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="11">
         <v>20201027</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="11">
         <v>130.417</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="11">
         <v>50</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="11">
         <v>6520.85</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="11">
         <f>N34-H34</f>
         <v>1050.35</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="18">
         <f>O34/H34</f>
         <v>0.192002559181062</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="9">
+      <c r="A35" s="15">
         <v>128094</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="16">
         <v>20201111</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="15">
         <v>111.586</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="15">
         <v>50</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="15">
         <v>5579.3</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="15">
         <f t="shared" si="0"/>
         <v>920.7</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="20">
         <f t="shared" si="1"/>
         <v>0.165020701521696</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="14"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="20"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="9">
+      <c r="A36" s="15">
         <v>128018</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="16">
         <v>20201116</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="15">
         <v>107.281</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="15">
         <v>50</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="15">
         <v>5364.05</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="15">
         <f t="shared" si="0"/>
         <v>1135.95</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="20">
         <f t="shared" si="1"/>
         <v>0.211770956646564</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="14"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="20"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="9">
+      <c r="A37" s="15">
         <v>128093</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="16">
         <v>20201123</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="15">
         <v>111.14</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="15">
         <v>50</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="15">
         <v>5557</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="15">
         <f t="shared" si="0"/>
         <v>943</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="20">
         <f t="shared" si="1"/>
         <v>0.169695879071441</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="14"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="20"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="9">
+      <c r="A38" s="15">
         <v>113033</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="16">
         <v>20201140</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="15">
         <v>109.464</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="15">
         <v>50</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="15">
         <v>5473.2</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="15">
         <f t="shared" si="0"/>
         <v>1026.8</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="20">
         <f t="shared" si="1"/>
         <v>0.18760505737046</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="14"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="20"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="9">
+      <c r="A39" s="15">
         <v>128082</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="16">
         <v>20201207</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="15">
         <v>114.589</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="15">
         <v>50</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="15">
         <f>G39*F39</f>
         <v>5729.45</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="15">
         <f t="shared" si="0"/>
         <v>770.55</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="20">
         <f t="shared" si="1"/>
         <v>0.134489348890382</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="14"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="20"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="9">
+      <c r="A40" s="15">
         <v>128026</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="16">
         <v>20201215</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="15">
         <v>103.998</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="15">
         <v>50</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="15">
         <v>5199.9</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="15">
         <f t="shared" si="0"/>
         <v>1300.1</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="20">
         <f t="shared" si="1"/>
         <v>0.250024038923825</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="14"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="20"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="9">
+      <c r="A41" s="15">
         <v>128085</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="16">
         <v>20201215</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="15">
         <v>81.5</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="15">
         <v>50</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="15">
         <v>4079.08</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="15">
         <f t="shared" si="0"/>
         <v>2425</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="20">
         <f t="shared" si="1"/>
         <v>0.594496798297655</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="14"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="20"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="9">
+      <c r="A42" s="15">
         <v>113542</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="16">
         <v>20201221</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="15">
         <v>114.69</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="15">
         <v>50</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="15">
         <v>5734.5</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="15">
         <f t="shared" si="0"/>
         <v>765.5</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="20">
         <f t="shared" si="1"/>
         <v>0.133490278141076</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="20"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="9">
+      <c r="A43" s="15">
         <v>123049</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="16">
         <v>20210104</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="15">
         <v>111</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="15">
         <v>20</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="15">
         <v>2220</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="15">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="20">
         <f t="shared" si="1"/>
         <v>0.171171171171171</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="14"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="20"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="9">
+      <c r="A44" s="15">
         <v>128105</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="16">
         <v>20210104</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="15">
         <v>107.988</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="15">
         <v>30</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="15">
         <v>3239.64</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="15">
         <f t="shared" si="0"/>
         <v>660.36</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="20">
         <f t="shared" si="1"/>
         <v>0.203837463421862</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="14"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="20"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="9">
+      <c r="A45" s="15">
         <v>110060</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="16">
         <v>20210104</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="15">
         <v>110.6</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="15">
         <v>30</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="15">
         <v>3318</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="15">
         <f t="shared" si="0"/>
         <v>582</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="20">
         <f t="shared" si="1"/>
         <v>0.175406871609403</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="14"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="20"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="9">
+      <c r="A46" s="15">
         <v>128018</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="16">
         <v>20210118</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="15">
         <v>98.9</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="15">
         <v>20</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="15">
         <v>1978</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="15">
         <f t="shared" si="0"/>
         <v>622</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="20">
         <f t="shared" si="1"/>
         <v>0.314459049544995</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="14"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="20"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="9">
+      <c r="A47" s="15">
         <v>113534</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="16">
         <v>20210119</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="15">
         <v>97.8</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="15">
         <v>30</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="15">
         <v>2934</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="15">
         <f t="shared" si="0"/>
         <v>966</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="20">
         <f t="shared" si="1"/>
         <v>0.329243353783231</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="14"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="20"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="9">
+      <c r="A48" s="15">
         <v>128100</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="16">
         <v>20210119</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="15">
         <v>95.414</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="15">
         <v>20</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="15">
         <v>1858.9</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="15">
         <f t="shared" si="0"/>
         <v>691.72</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="20">
         <f t="shared" si="1"/>
         <v>0.372112539674001</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="14"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="20"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="9">
+      <c r="A49" s="15">
         <v>128042</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="16">
         <v>20210119</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="15">
         <v>100.394</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="15">
         <v>20</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="15">
         <v>2007.88</v>
       </c>
-      <c r="I49" s="9">
-        <f t="shared" ref="I49:I78" si="2">(130-F49)*G49</f>
+      <c r="I49" s="15">
+        <f t="shared" ref="I49:I80" si="2">(130-F49)*G49</f>
         <v>592.12</v>
       </c>
-      <c r="J49" s="14">
-        <f t="shared" ref="J49:J78" si="3">I49/H49</f>
+      <c r="J49" s="20">
+        <f t="shared" ref="J49:J80" si="3">I49/H49</f>
         <v>0.294898101480168</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="14"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="20"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="9">
+      <c r="A50" s="15">
         <v>113524</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="16">
         <v>20210122</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="15">
         <v>98.64</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="15">
         <v>20</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="15">
         <v>1972.8</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="15">
         <f t="shared" si="2"/>
         <v>627.2</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="20">
         <f t="shared" si="3"/>
         <v>0.317923763179238</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="14"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="20"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="9">
+      <c r="A51" s="15">
         <v>128071</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="16">
         <v>20210125</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="15">
         <v>107.431</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="15">
         <v>20</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="15">
         <v>2148.62</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="15">
         <f t="shared" si="2"/>
         <v>451.38</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="20">
         <f t="shared" si="3"/>
         <v>0.210079027468794</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="14"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="20"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="9">
+      <c r="A52" s="15">
         <v>113030</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="16">
         <v>20210125</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="15">
         <v>108.07</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="15">
         <v>20</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="15">
         <v>2161.4</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="15">
         <f t="shared" si="2"/>
         <v>438.6</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="20">
         <f t="shared" si="3"/>
         <v>0.202924030720829</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="14"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="20"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="9">
+      <c r="A53" s="15">
         <v>110071</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="16">
         <v>20210201</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="15">
         <v>93.705</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="15">
         <v>20</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="15">
         <v>1874.1</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="15">
         <f t="shared" si="2"/>
         <v>725.9</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="20">
         <f t="shared" si="3"/>
         <v>0.387332586308095</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="14"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="20"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="9">
+      <c r="A54" s="15">
         <v>113024</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="16">
         <v>20210201</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="15">
         <v>104</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="15">
         <v>20</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="15">
         <v>2080</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="15">
         <f t="shared" si="2"/>
         <v>520</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="20">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="14"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="20"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="9">
+      <c r="A55" s="15">
         <v>128105</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="16">
         <v>20210201</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="15">
         <v>97.351</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="15">
         <v>20</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="15">
         <v>1947.01</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="15">
         <f t="shared" si="2"/>
         <v>652.98</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="20">
         <f t="shared" si="3"/>
         <v>0.335375781326239</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="14"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="20"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="9">
+      <c r="A56" s="15">
         <v>113505</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="16">
         <v>20210201</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="15">
         <v>100.63</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="15">
         <v>20</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="15">
         <v>2012.6</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="15">
         <f t="shared" si="2"/>
         <v>587.4</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="20">
         <f t="shared" si="3"/>
         <v>0.291861273973964</v>
       </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="14"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="20"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="9">
+      <c r="A57" s="15">
         <v>128081</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="16">
         <v>20210201</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="15">
         <v>95.837</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="15">
         <v>20</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="15">
         <v>1916.74</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="15">
         <f t="shared" si="2"/>
         <v>683.26</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="20">
         <f t="shared" si="3"/>
         <v>0.35646983941484</v>
       </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="14"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="20"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="9">
+      <c r="A58" s="15">
         <v>128083</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="16">
         <v>20210208</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="15">
         <v>98.789</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="15">
         <v>20</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="15">
         <v>1975.78</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="15">
         <f t="shared" si="2"/>
         <v>624.22</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="20">
         <f t="shared" si="3"/>
         <v>0.315935984775633</v>
       </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="14"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="20"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="9">
+      <c r="A59" s="15">
         <v>110051</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="16">
         <v>20210208</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="15">
         <v>106.47</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="15">
         <v>20</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="15">
         <v>2129.4</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="15">
         <f t="shared" si="2"/>
         <v>470.6</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="20">
         <f t="shared" si="3"/>
         <v>0.221001221001221</v>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="14"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="20"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="9">
+      <c r="A60" s="15">
         <v>113549</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="16">
         <v>20210208</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="15">
         <v>90.6</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="15">
         <v>20</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="15">
         <v>1812</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="15">
         <f t="shared" si="2"/>
         <v>788</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="20">
         <f t="shared" si="3"/>
         <v>0.434878587196468</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="14"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="20"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="9">
+      <c r="A61" s="15">
         <v>113563</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="16">
         <v>20210222</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="15">
         <v>104.15</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="15">
         <v>20</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="15">
         <v>2083</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="15">
         <f t="shared" si="2"/>
         <v>517</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="20">
         <f t="shared" si="3"/>
         <v>0.248199711953913</v>
       </c>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="14"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="20"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="9">
+      <c r="A62" s="15">
         <v>110068</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="16">
         <v>20210301</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="15">
         <v>99.78</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="15">
         <v>20</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="15">
         <v>1995.6</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="15">
         <f t="shared" si="2"/>
         <v>604.4</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="20">
         <f t="shared" si="3"/>
         <v>0.30286630587292</v>
       </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="14"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="20"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="9">
+      <c r="A63" s="15">
         <v>113039</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="16">
         <v>20210308</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="15">
         <v>101.96</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="15">
         <v>20</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="15">
         <v>2039.2</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="15">
         <f t="shared" si="2"/>
         <v>560.8</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="20">
         <f t="shared" si="3"/>
         <v>0.275009807767752</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="14"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="20"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="9">
+      <c r="A64" s="15">
         <v>110074</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="16">
         <v>20210308</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="15">
         <v>102.86</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="15">
         <v>20</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="15">
         <v>2057.2</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="15">
         <f t="shared" si="2"/>
         <v>542.8</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="20">
         <f t="shared" si="3"/>
         <v>0.263853781839393</v>
       </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="14"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="20"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="9">
+      <c r="A65" s="15">
         <v>127020</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="16">
         <v>20210308</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="15">
         <v>109.899</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="15">
         <v>20</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="15">
         <v>2197.98</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="15">
         <f t="shared" si="2"/>
         <v>402.02</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="20">
         <f t="shared" si="3"/>
         <v>0.182904303041884</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="14"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="20"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="5">
+      <c r="A66" s="11">
         <v>113039</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="12">
         <v>20210510</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="11">
         <v>103.58</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="11">
         <v>10</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="11">
         <v>1035.8</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="11">
         <f t="shared" si="2"/>
         <v>264.2</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="18">
         <f t="shared" si="3"/>
         <v>0.255068546051361</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="11">
         <v>20210616</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="11">
         <v>126.95</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="11">
         <v>10</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="11">
         <v>1269.5</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="11">
         <f>N66-H66</f>
         <v>233.7</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66" s="18">
         <f>O66/H66</f>
         <v>0.22562270708631</v>
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="15">
+      <c r="A67" s="11">
         <v>110071</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="12">
         <v>20210510</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="11">
         <v>103.14</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="11">
         <v>10</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="11">
         <v>1031.4</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="11">
         <f t="shared" si="2"/>
         <v>268.6</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="18">
         <f t="shared" si="3"/>
         <v>0.260422726391313</v>
       </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="18"/>
+      <c r="K67" s="11">
+        <v>20210811</v>
+      </c>
+      <c r="L67" s="11">
+        <v>130.05</v>
+      </c>
+      <c r="M67" s="11">
+        <v>10</v>
+      </c>
+      <c r="N67" s="11">
+        <v>1300.5</v>
+      </c>
+      <c r="O67" s="11">
+        <f>N67-H67</f>
+        <v>269.1</v>
+      </c>
+      <c r="P67" s="18">
+        <f>O67/H67</f>
+        <v>0.260907504363002</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="15">
+      <c r="A68" s="22">
         <v>113539</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="24">
         <v>20210510</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="22">
         <v>102.39</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="22">
         <v>10</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="22">
         <v>1023.9</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="22">
         <f t="shared" si="2"/>
         <v>276.1</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="18">
         <f t="shared" si="3"/>
         <v>0.269655239769509</v>
       </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="18"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="27"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="15">
+      <c r="A69" s="22">
         <v>128081</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="24">
         <v>20210517</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="22">
         <v>105</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="22">
         <v>10</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="22">
         <v>1050</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="22">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="18">
         <f t="shared" si="3"/>
         <v>0.238095238095238</v>
       </c>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="18"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="27"/>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="15">
+      <c r="A70" s="22">
         <v>110067</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="24">
         <v>20210517</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="22">
         <v>107.08</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="22">
         <v>10</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="22">
         <v>1070.8</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="22">
         <f t="shared" si="2"/>
         <v>229.2</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="18">
         <f t="shared" si="3"/>
         <v>0.214045573403063</v>
       </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="18"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="27"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="15">
+      <c r="A71" s="22">
         <v>113505</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="24">
         <v>20210524</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="22">
         <v>102.45</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="22">
         <v>10</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="22">
         <v>1024.5</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="22">
         <f t="shared" si="2"/>
         <v>275.5</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="18">
         <f t="shared" si="3"/>
         <v>0.268911664226452</v>
       </c>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="18"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="27"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="15">
+      <c r="A72" s="22">
         <v>128105</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="24">
         <v>20210607</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F72" s="22">
         <v>106.74</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="22">
         <v>10</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="22">
         <v>1067.4</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="22">
         <f t="shared" si="2"/>
         <v>232.6</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="18">
         <f t="shared" si="3"/>
         <v>0.217912685029043</v>
       </c>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="18"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="27"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="15">
+      <c r="A73" s="11">
         <v>128140</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="12">
         <v>20210617</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="11">
         <v>106.991</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="11">
         <v>10</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="11">
         <v>1069.91</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="11">
         <f t="shared" si="2"/>
         <v>230.09</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="18">
         <f t="shared" si="3"/>
         <v>0.215055471955585</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="18"/>
+      <c r="K73" s="11">
+        <v>20210823</v>
+      </c>
+      <c r="L73" s="11">
+        <v>130.028</v>
+      </c>
+      <c r="M73" s="11">
+        <v>10</v>
+      </c>
+      <c r="N73" s="11">
+        <v>1300.28</v>
+      </c>
+      <c r="O73" s="11">
+        <f>N73-H73</f>
+        <v>230.37</v>
+      </c>
+      <c r="P73" s="18">
+        <f>O73/H73</f>
+        <v>0.215317176211083</v>
+      </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="5">
+      <c r="A74" s="11">
         <v>113039</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="12">
         <v>20210621</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="11">
         <v>109.5</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="11">
         <v>10</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="11">
         <v>1095</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="11">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="18">
         <f t="shared" si="3"/>
         <v>0.187214611872146</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="11">
         <v>20210622</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="11">
         <v>130.31</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="11">
         <v>10</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N74" s="11">
         <v>1303.1</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74" s="11">
         <f>N74-H74</f>
         <v>208.1</v>
       </c>
-      <c r="P74" s="12">
+      <c r="P74" s="18">
         <f>O74/H74</f>
         <v>0.190045662100457</v>
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="15">
+      <c r="A75" s="11">
         <v>127020</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="25">
         <v>20210621</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="11">
         <v>110.4</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="11">
         <v>10</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="11">
         <v>1104</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="11">
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="18">
         <f t="shared" si="3"/>
         <v>0.177536231884058</v>
       </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="18"/>
+      <c r="K75" s="11">
+        <v>20210830</v>
+      </c>
+      <c r="L75" s="11">
+        <v>131.71</v>
+      </c>
+      <c r="M75" s="11">
+        <v>10</v>
+      </c>
+      <c r="N75" s="11">
+        <v>1317.1</v>
+      </c>
+      <c r="O75" s="11">
+        <f>N75-H75</f>
+        <v>213.1</v>
+      </c>
+      <c r="P75" s="18">
+        <f>O75/H75</f>
+        <v>0.19302536231884</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="15">
+      <c r="A76" s="11">
         <v>113014</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="25">
         <v>20210705</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="11">
         <v>107.25</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="11">
         <v>10</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="11">
         <v>1072.5</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="11">
         <f t="shared" si="2"/>
         <v>227.5</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="18">
         <f t="shared" si="3"/>
         <v>0.212121212121212</v>
       </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="18"/>
+      <c r="K76" s="11">
+        <v>20210730</v>
+      </c>
+      <c r="L76" s="11">
+        <v>129.95</v>
+      </c>
+      <c r="M76" s="11">
+        <v>10</v>
+      </c>
+      <c r="N76" s="11">
+        <v>1299.5</v>
+      </c>
+      <c r="O76" s="11">
+        <f>N76-H76</f>
+        <v>227</v>
+      </c>
+      <c r="P76" s="18">
+        <f>O76/H76</f>
+        <v>0.211655011655012</v>
+      </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="15">
+      <c r="A77" s="22">
         <v>128037</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="26">
         <v>20210705</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="22">
         <v>106.739</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="22">
         <v>10</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="22">
         <v>1067.39</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="22">
         <f t="shared" si="2"/>
         <v>232.61</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="18">
         <f t="shared" si="3"/>
         <v>0.217924095222927</v>
       </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="18"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="27"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="15">
+      <c r="A78" s="22">
         <v>128141</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="26">
         <v>20210705</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="22">
         <v>109.427</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="22">
         <v>10</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="22">
         <v>1094.27</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="22">
         <f t="shared" si="2"/>
         <v>205.73</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="18">
         <f t="shared" si="3"/>
         <v>0.188006616283001</v>
       </c>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="18"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="27"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="15">
+      <c r="A79" s="22">
         <v>127026</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="26">
         <v>20210712</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="22">
         <v>107.506</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="22">
         <v>10</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="22">
         <v>1075.06</v>
       </c>
-      <c r="I79" s="15">
-        <f>(130-F79)*G79</f>
+      <c r="I79" s="22">
+        <f t="shared" si="2"/>
         <v>224.94</v>
       </c>
-      <c r="J79" s="12">
-        <f>I79/H79</f>
+      <c r="J79" s="18">
+        <f t="shared" si="3"/>
         <v>0.209234833404647</v>
       </c>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="18"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="27"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="18"/>
+      <c r="A80" s="22">
+        <v>127028</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="26">
+        <v>20210719</v>
+      </c>
+      <c r="F80" s="22">
+        <v>108.92</v>
+      </c>
+      <c r="G80" s="22">
+        <v>10</v>
+      </c>
+      <c r="H80" s="22">
+        <v>1089.2</v>
+      </c>
+      <c r="I80" s="22">
+        <f t="shared" si="2"/>
+        <v>210.8</v>
+      </c>
+      <c r="J80" s="18">
+        <f t="shared" si="3"/>
+        <v>0.193536540580242</v>
+      </c>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="27"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="18"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="27"/>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="18"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P82">
@@ -4927,4 +5063,480 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.375" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4">
+        <v>202107</v>
+      </c>
+      <c r="B2" s="4">
+        <v>127038</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20210715</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>144.26</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1441.19</v>
+      </c>
+      <c r="J2" s="4">
+        <f>I2-G2</f>
+        <v>441.19</v>
+      </c>
+      <c r="K2" s="6">
+        <f>J2/G2</f>
+        <v>0.44119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4">
+        <v>202107</v>
+      </c>
+      <c r="B3" s="4">
+        <v>127037</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20210709</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>119.22</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1192.2</v>
+      </c>
+      <c r="J3" s="4">
+        <f>I3-G3</f>
+        <v>192.2</v>
+      </c>
+      <c r="K3" s="6">
+        <f>J3/G3</f>
+        <v>0.1922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4">
+        <v>202105</v>
+      </c>
+      <c r="B4" s="4">
+        <v>113623</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20210507</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>119.35</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1192.5</v>
+      </c>
+      <c r="J4" s="4">
+        <f>I4-G4</f>
+        <v>192.5</v>
+      </c>
+      <c r="K4" s="6">
+        <f>J4/G4</f>
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4">
+        <v>202104</v>
+      </c>
+      <c r="B5" s="4">
+        <v>123111</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20210426</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>131.61</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1314.78</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>